--- a/projects/test_building/input/ID_Building_Type.xlsx
+++ b/projects/test_building/input/ID_Building_Type.xlsx
@@ -3,17 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CF302A-BA46-5841-B768-33833B992F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7274D1E1-8EBC-AD41-9453-2AE1E559F6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1820" yWindow="-13480" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -404,10 +415,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64" customWidth="1"/>
   </cols>
   <sheetData>
